--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Project</t>
   </si>
@@ -280,9 +280,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>1) Measured Energy (kWh) were taken from the SCADA.  The Measured Energy (kWh) and Weather Performance  are only preliminary and not audited.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weather </t>
   </si>
   <si>
@@ -301,8 +298,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-1010409]###,###"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-1010409]###,###"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -933,8 +930,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
@@ -952,7 +949,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,7 +961,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,7 +982,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,25 +1015,25 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,7 +1090,7 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,11 +1105,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,6 +1138,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,48 +1156,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1182,6 +1164,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1464,7 +1461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1478,7 +1475,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1494,35 +1491,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="77.25" customHeight="1" thickBot="1">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="16.2" thickBot="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="83" t="s">
         <v>4</v>
       </c>
@@ -1530,8 +1527,8 @@
       <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1554,12 +1551,12 @@
         <v>3</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.8">
@@ -1590,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="31">
         <v>42767</v>
@@ -1629,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="17">
         <v>42767</v>
@@ -1837,44 +1834,42 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="2:11" ht="15" thickBot="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="18"/>

--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -19,103 +19,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>astejada</author>
-  </authors>
-  <commentList>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>astejada:
-("MEASURED INSOLATION"/INSOLATION REFERENCE") * (REFERENCE PRODUCTION KWH)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>astejada:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"MEASURED PRODUCTION" / "REFERENCE PRODUCTION"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>astejada:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"MEASURED PRODUCTION" / "EXPECTED PRODUCTION"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>astejada:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"EXPECTED KWH" / "REFERENCE KWH"</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -301,7 +204,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-1010409]###,###"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,19 +318,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1461,7 +1351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1895,10 +1785,9 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="83" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -10,9 +10,9 @@
     <sheet name="February FireLight Ground Mount" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1351,7 +1351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,7 +1362,7 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
@@ -1659,128 +1659,188 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="48"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="23.4" thickBot="1">
+    <row r="15" spans="1:11" ht="22.8">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" ht="23.4" thickBot="1">
-      <c r="B16" s="58" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="22.8">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="22.8">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.8">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54">
-        <f>SUM(D5:D15)</f>
+      <c r="B18" s="29"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.4" thickBot="1">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="23.4" thickBot="1">
+      <c r="B20" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54">
+        <f>SUM(D5:D19)</f>
         <v>200.12</v>
       </c>
-      <c r="E16" s="55">
-        <f>SUM(E5:E15)</f>
+      <c r="E20" s="55">
+        <f>SUM(E5:E19)</f>
         <v>175</v>
       </c>
-      <c r="F16" s="54">
-        <f>SUM(F5:F15)</f>
+      <c r="F20" s="54">
+        <f>SUM(F5:F19)</f>
         <v>158000</v>
       </c>
-      <c r="G16" s="22">
-        <f>SUM(G5:G15)</f>
+      <c r="G20" s="22">
+        <f>SUM(G5:G19)</f>
         <v>203424.34673856208</v>
       </c>
-      <c r="H16" s="55">
-        <f>SUM(H5:H15)</f>
+      <c r="H20" s="55">
+        <f>SUM(H5:H19)</f>
         <v>178026</v>
       </c>
-      <c r="I16" s="23">
-        <f>F16/H16</f>
+      <c r="I20" s="23">
+        <f>F20/H20</f>
         <v>0.88751081302731061</v>
       </c>
-      <c r="J16" s="23">
-        <f t="shared" ref="J16" si="1">F16/G16</f>
+      <c r="J20" s="23">
+        <f t="shared" ref="J20" si="1">F20/G20</f>
         <v>0.7767015233582597</v>
       </c>
-      <c r="K16" s="24">
-        <f>G16/H16</f>
+      <c r="K20" s="24">
+        <f>G20/H20</f>
         <v>1.1426665023005744</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="75" t="s">
+    <row r="21" spans="1:11">
+      <c r="B21" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-    </row>
-    <row r="19" spans="2:11" ht="15" thickBot="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B21:K21"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>

--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="February FireLight Ground Mount" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -1351,7 +1351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,10 +1362,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1730,117 +1730,237 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" ht="23.4" thickBot="1">
+    <row r="19" spans="1:11" ht="22.8">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" ht="23.4" thickBot="1">
-      <c r="B20" s="58" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.8">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.8">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="22.8">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="22.8">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" ht="22.8">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" ht="22.8">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="22.8">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" ht="23.4" thickBot="1">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.4" thickBot="1">
+      <c r="B28" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54">
-        <f>SUM(D5:D19)</f>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54">
+        <f>SUM(D5:D27)</f>
         <v>200.12</v>
       </c>
-      <c r="E20" s="55">
-        <f>SUM(E5:E19)</f>
+      <c r="E28" s="55">
+        <f>SUM(E5:E27)</f>
         <v>175</v>
       </c>
-      <c r="F20" s="54">
-        <f>SUM(F5:F19)</f>
+      <c r="F28" s="54">
+        <f>SUM(F5:F27)</f>
         <v>158000</v>
       </c>
-      <c r="G20" s="22">
-        <f>SUM(G5:G19)</f>
+      <c r="G28" s="22">
+        <f>SUM(G5:G27)</f>
         <v>203424.34673856208</v>
       </c>
-      <c r="H20" s="55">
-        <f>SUM(H5:H19)</f>
+      <c r="H28" s="55">
+        <f>SUM(H5:H27)</f>
         <v>178026</v>
       </c>
-      <c r="I20" s="23">
-        <f>F20/H20</f>
+      <c r="I28" s="23">
+        <f>F28/H28</f>
         <v>0.88751081302731061</v>
       </c>
-      <c r="J20" s="23">
-        <f t="shared" ref="J20" si="1">F20/G20</f>
+      <c r="J28" s="23">
+        <f t="shared" ref="J28" si="1">F28/G28</f>
         <v>0.7767015233582597</v>
       </c>
-      <c r="K20" s="24">
-        <f>G20/H20</f>
+      <c r="K28" s="24">
+        <f>G28/H28</f>
         <v>1.1426665023005744</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="B21" s="75" t="s">
+    <row r="29" spans="1:11">
+      <c r="B29" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1">
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B30:K30"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B29:K29"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>

--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="February FireLight Ground Mount" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$33</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -1351,7 +1351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,10 +1362,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1850,117 +1850,147 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" ht="23.4" thickBot="1">
+    <row r="27" spans="1:11" ht="22.8">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" ht="23.4" thickBot="1">
-      <c r="B28" s="58" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" ht="22.8">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" ht="23.4" thickBot="1">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="23.4" thickBot="1">
+      <c r="B30" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54">
-        <f>SUM(D5:D27)</f>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54">
+        <f>SUM(D5:D29)</f>
         <v>200.12</v>
       </c>
-      <c r="E28" s="55">
-        <f>SUM(E5:E27)</f>
+      <c r="E30" s="55">
+        <f>SUM(E5:E29)</f>
         <v>175</v>
       </c>
-      <c r="F28" s="54">
-        <f>SUM(F5:F27)</f>
+      <c r="F30" s="54">
+        <f>SUM(F5:F29)</f>
         <v>158000</v>
       </c>
-      <c r="G28" s="22">
-        <f>SUM(G5:G27)</f>
+      <c r="G30" s="22">
+        <f>SUM(G5:G29)</f>
         <v>203424.34673856208</v>
       </c>
-      <c r="H28" s="55">
-        <f>SUM(H5:H27)</f>
+      <c r="H30" s="55">
+        <f>SUM(H5:H29)</f>
         <v>178026</v>
       </c>
-      <c r="I28" s="23">
-        <f>F28/H28</f>
+      <c r="I30" s="23">
+        <f>F30/H30</f>
         <v>0.88751081302731061</v>
       </c>
-      <c r="J28" s="23">
-        <f t="shared" ref="J28" si="1">F28/G28</f>
+      <c r="J30" s="23">
+        <f t="shared" ref="J30" si="1">F30/G30</f>
         <v>0.7767015233582597</v>
       </c>
-      <c r="K28" s="24">
-        <f>G28/H28</f>
+      <c r="K30" s="24">
+        <f>G30/H30</f>
         <v>1.1426665023005744</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="75" t="s">
+    <row r="31" spans="1:11">
+      <c r="B31" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
+    </row>
+    <row r="33" spans="2:11" ht="15" thickBot="1">
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B32:K32"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B31:K31"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>

--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="February FireLight Ground Mount" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$44</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -1351,7 +1351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,10 +1362,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1880,117 +1880,282 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" ht="23.4" thickBot="1">
+    <row r="29" spans="1:11" ht="22.8">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="23.4" thickBot="1">
-      <c r="B30" s="58" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" ht="22.8">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="22.8">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="22.8">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="22.8">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="22.8">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" ht="22.8">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="22.8">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" ht="22.8">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" ht="22.8">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" ht="22.8">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="23.4" thickBot="1">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="27"/>
+    </row>
+    <row r="41" spans="1:11" ht="23.4" thickBot="1">
+      <c r="B41" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54">
-        <f>SUM(D5:D29)</f>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54">
+        <f>SUM(D5:D40)</f>
         <v>200.12</v>
       </c>
-      <c r="E30" s="55">
-        <f>SUM(E5:E29)</f>
+      <c r="E41" s="55">
+        <f>SUM(E5:E40)</f>
         <v>175</v>
       </c>
-      <c r="F30" s="54">
-        <f>SUM(F5:F29)</f>
+      <c r="F41" s="54">
+        <f>SUM(F5:F40)</f>
         <v>158000</v>
       </c>
-      <c r="G30" s="22">
-        <f>SUM(G5:G29)</f>
+      <c r="G41" s="22">
+        <f>SUM(G5:G40)</f>
         <v>203424.34673856208</v>
       </c>
-      <c r="H30" s="55">
-        <f>SUM(H5:H29)</f>
+      <c r="H41" s="55">
+        <f>SUM(H5:H40)</f>
         <v>178026</v>
       </c>
-      <c r="I30" s="23">
-        <f>F30/H30</f>
+      <c r="I41" s="23">
+        <f>F41/H41</f>
         <v>0.88751081302731061</v>
       </c>
-      <c r="J30" s="23">
-        <f t="shared" ref="J30" si="1">F30/G30</f>
+      <c r="J41" s="23">
+        <f t="shared" ref="J41" si="1">F41/G41</f>
         <v>0.7767015233582597</v>
       </c>
-      <c r="K30" s="24">
-        <f>G30/H30</f>
+      <c r="K41" s="24">
+        <f>G41/H41</f>
         <v>1.1426665023005744</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="75" t="s">
+    <row r="42" spans="1:11">
+      <c r="B42" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
-    </row>
-    <row r="33" spans="2:11" ht="15" thickBot="1">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="77"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="65"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1">
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B43:K43"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B42:K42"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>

--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="February FireLight Ground Mount" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$45</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -1351,7 +1351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,10 +1362,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2045,117 +2045,132 @@
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" ht="23.4" thickBot="1">
+    <row r="40" spans="1:11" ht="22.8">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="27"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" ht="23.4" thickBot="1">
-      <c r="B41" s="58" t="s">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="27"/>
+    </row>
+    <row r="42" spans="1:11" ht="23.4" thickBot="1">
+      <c r="B42" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54">
-        <f>SUM(D5:D40)</f>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54">
+        <f>SUM(D5:D41)</f>
         <v>200.12</v>
       </c>
-      <c r="E41" s="55">
-        <f>SUM(E5:E40)</f>
+      <c r="E42" s="55">
+        <f>SUM(E5:E41)</f>
         <v>175</v>
       </c>
-      <c r="F41" s="54">
-        <f>SUM(F5:F40)</f>
+      <c r="F42" s="54">
+        <f>SUM(F5:F41)</f>
         <v>158000</v>
       </c>
-      <c r="G41" s="22">
-        <f>SUM(G5:G40)</f>
+      <c r="G42" s="22">
+        <f>SUM(G5:G41)</f>
         <v>203424.34673856208</v>
       </c>
-      <c r="H41" s="55">
-        <f>SUM(H5:H40)</f>
+      <c r="H42" s="55">
+        <f>SUM(H5:H41)</f>
         <v>178026</v>
       </c>
-      <c r="I41" s="23">
-        <f>F41/H41</f>
+      <c r="I42" s="23">
+        <f>F42/H42</f>
         <v>0.88751081302731061</v>
       </c>
-      <c r="J41" s="23">
-        <f t="shared" ref="J41" si="1">F41/G41</f>
+      <c r="J42" s="23">
+        <f t="shared" ref="J42" si="1">F42/G42</f>
         <v>0.7767015233582597</v>
       </c>
-      <c r="K41" s="24">
-        <f>G41/H41</f>
+      <c r="K42" s="24">
+        <f>G42/H42</f>
         <v>1.1426665023005744</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="B42" s="75" t="s">
+    <row r="43" spans="1:11">
+      <c r="B43" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="77"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1">
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="77"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="65"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" thickBot="1">
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="62"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B45:K45"/>
     <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B43:K43"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>

--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="February FireLight Ground Mount" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$50</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,11 +203,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-1010409]###,###"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1010409]###,###"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -347,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -817,14 +822,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,7 +870,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +882,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +903,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,25 +936,25 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,7 +1011,7 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,7 +1026,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1074,6 +1105,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1351,33 +1397,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="59" customWidth="1"/>
-    <col min="10" max="11" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="59" customWidth="1"/>
+    <col min="10" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="77.25" customHeight="1" thickBot="1">
@@ -1394,7 +1440,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="68"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.2" thickBot="1">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1462,7 @@
       <c r="J2" s="83"/>
       <c r="K2" s="84"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="B3" s="73"/>
       <c r="C3" s="70"/>
       <c r="D3" s="5" t="s">
@@ -1444,7 +1490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="B4" s="74"/>
       <c r="C4" s="71"/>
       <c r="D4" s="7" t="s">
@@ -1472,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22.8">
+    <row r="5" spans="1:11" ht="23.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1511,7 +1557,7 @@
         <v>1.1732222222222222</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="22.8">
+    <row r="6" spans="1:11" ht="23.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1550,7 +1596,7 @@
         <v>1.1121176470588234</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.8">
+    <row r="7" spans="1:11" ht="23.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1565,7 +1611,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="22.8">
+    <row r="8" spans="1:11" ht="23.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1580,7 +1626,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="22.8">
+    <row r="9" spans="1:11" ht="23.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1595,7 +1641,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="22.8">
+    <row r="10" spans="1:11" ht="23.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1610,7 +1656,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="22.8">
+    <row r="11" spans="1:11" ht="23.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1625,7 +1671,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="22.8">
+    <row r="12" spans="1:11" ht="23.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1640,7 +1686,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" ht="22.8">
+    <row r="13" spans="1:11" ht="23.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1655,7 +1701,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="22.8">
+    <row r="14" spans="1:11" ht="23.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1670,7 +1716,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="22.8">
+    <row r="15" spans="1:11" ht="23.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1685,7 +1731,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="22.8">
+    <row r="16" spans="1:11" ht="23.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1700,7 +1746,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="22.8">
+    <row r="17" spans="1:11" ht="23.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1715,7 +1761,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" ht="22.8">
+    <row r="18" spans="1:11" ht="23.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1730,7 +1776,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" ht="22.8">
+    <row r="19" spans="1:11" ht="23.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1745,7 +1791,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" ht="22.8">
+    <row r="20" spans="1:11" ht="23.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1760,7 +1806,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" ht="22.8">
+    <row r="21" spans="1:11" ht="23.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1775,7 +1821,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" ht="22.8">
+    <row r="22" spans="1:11" ht="23.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1790,7 +1836,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" ht="22.8">
+    <row r="23" spans="1:11" ht="23.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1805,7 +1851,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" ht="22.8">
+    <row r="24" spans="1:11" ht="23.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1820,7 +1866,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" ht="22.8">
+    <row r="25" spans="1:11" ht="23.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1835,7 +1881,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" ht="22.8">
+    <row r="26" spans="1:11" ht="23.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1850,7 +1896,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" ht="22.8">
+    <row r="27" spans="1:11" ht="23.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1865,7 +1911,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" ht="22.8">
+    <row r="28" spans="1:11" ht="23.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1880,7 +1926,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" ht="22.8">
+    <row r="29" spans="1:11" ht="23.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1895,7 +1941,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" ht="22.8">
+    <row r="30" spans="1:11" ht="23.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1910,7 +1956,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" ht="22.8">
+    <row r="31" spans="1:11" ht="23.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1925,7 +1971,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" ht="22.8">
+    <row r="32" spans="1:11" ht="23.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1940,7 +1986,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" ht="22.8">
+    <row r="33" spans="1:11" ht="23.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1955,7 +2001,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" ht="22.8">
+    <row r="34" spans="1:11" ht="23.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1970,7 +2016,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" ht="22.8">
+    <row r="35" spans="1:11" ht="23.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1985,7 +2031,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" ht="22.8">
+    <row r="36" spans="1:11" ht="23.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -2000,7 +2046,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" ht="22.8">
+    <row r="37" spans="1:11" ht="23.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -2015,7 +2061,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" ht="22.8">
+    <row r="38" spans="1:11" ht="23.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -2030,7 +2076,7 @@
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" ht="22.8">
+    <row r="39" spans="1:11" ht="23.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -2045,7 +2091,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" ht="22.8">
+    <row r="40" spans="1:11" ht="23.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -2060,117 +2106,192 @@
       <c r="J40" s="20"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" ht="23.4" thickBot="1">
+    <row r="41" spans="1:11" ht="23.25">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:11" ht="23.4" thickBot="1">
-      <c r="B42" s="58" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="89"/>
+    </row>
+    <row r="42" spans="1:11" ht="23.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="89"/>
+    </row>
+    <row r="43" spans="1:11" ht="23.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="89"/>
+    </row>
+    <row r="44" spans="1:11" ht="23.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="89"/>
+    </row>
+    <row r="45" spans="1:11" ht="23.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="89"/>
+    </row>
+    <row r="46" spans="1:11" ht="24" thickBot="1">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="27"/>
+    </row>
+    <row r="47" spans="1:11" ht="24" thickBot="1">
+      <c r="B47" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="54">
-        <f>SUM(D5:D41)</f>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54">
+        <f>SUM(D5:D46)</f>
         <v>200.12</v>
       </c>
-      <c r="E42" s="55">
-        <f>SUM(E5:E41)</f>
+      <c r="E47" s="55">
+        <f>SUM(E5:E46)</f>
         <v>175</v>
       </c>
-      <c r="F42" s="54">
-        <f>SUM(F5:F41)</f>
+      <c r="F47" s="54">
+        <f>SUM(F5:F46)</f>
         <v>158000</v>
       </c>
-      <c r="G42" s="22">
-        <f>SUM(G5:G41)</f>
+      <c r="G47" s="22">
+        <f>SUM(G5:G46)</f>
         <v>203424.34673856208</v>
       </c>
-      <c r="H42" s="55">
-        <f>SUM(H5:H41)</f>
+      <c r="H47" s="55">
+        <f>SUM(H5:H46)</f>
         <v>178026</v>
       </c>
-      <c r="I42" s="23">
-        <f>F42/H42</f>
+      <c r="I47" s="23">
+        <f>F47/H47</f>
         <v>0.88751081302731061</v>
       </c>
-      <c r="J42" s="23">
-        <f t="shared" ref="J42" si="1">F42/G42</f>
+      <c r="J47" s="23">
+        <f t="shared" ref="J47" si="1">F47/G47</f>
         <v>0.7767015233582597</v>
       </c>
-      <c r="K42" s="24">
-        <f>G42/H42</f>
+      <c r="K47" s="24">
+        <f>G47/H47</f>
         <v>1.1426665023005744</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="B43" s="75" t="s">
+    <row r="48" spans="1:11">
+      <c r="B48" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="77"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="62"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="77"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="62"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B49:K49"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B48:K48"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>

--- a/job/templates/MonthlyReport-v1.xlsx
+++ b/job/templates/MonthlyReport-v1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="February FireLight Ground Mount" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'February FireLight Ground Mount'!$B$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1032,6 +1032,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1105,21 +1120,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1408,10 +1408,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1427,44 +1427,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="77.25" customHeight="1" thickBot="1">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1491,8 +1491,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B4" s="74"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2112,14 +2112,14 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="85"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="87"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="50"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="89"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" spans="1:11" ht="23.25">
       <c r="A42">
@@ -2127,14 +2127,14 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="85"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="41"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
       <c r="H42" s="50"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="89"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" ht="23.25">
       <c r="A43">
@@ -2142,14 +2142,14 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="85"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="41"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
       <c r="H43" s="50"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="89"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:11" ht="23.25">
       <c r="A44">
@@ -2157,14 +2157,14 @@
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="85"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="41"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="87"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
       <c r="H44" s="50"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="89"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:11" ht="23.25">
       <c r="A45">
@@ -2172,126 +2172,240 @@
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="85"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="41"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
       <c r="H45" s="50"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="89"/>
-    </row>
-    <row r="46" spans="1:11" ht="24" thickBot="1">
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="64"/>
+    </row>
+    <row r="46" spans="1:11" ht="23.25">
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="27"/>
-    </row>
-    <row r="47" spans="1:11" ht="24" thickBot="1">
-      <c r="B47" s="58" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="64"/>
+    </row>
+    <row r="47" spans="1:11" ht="23.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="64"/>
+    </row>
+    <row r="48" spans="1:11" ht="23.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="64"/>
+    </row>
+    <row r="49" spans="1:11" ht="23.25">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
+    </row>
+    <row r="50" spans="1:11" ht="23.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="64"/>
+    </row>
+    <row r="51" spans="1:11" ht="23.25">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
+    </row>
+    <row r="52" spans="1:11" ht="23.25">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="64"/>
+    </row>
+    <row r="53" spans="1:11" ht="23.25">
+      <c r="B53" s="29"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
+    </row>
+    <row r="54" spans="1:11" ht="24" thickBot="1">
+      <c r="B54" s="30"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="27"/>
+    </row>
+    <row r="55" spans="1:11" ht="24" thickBot="1">
+      <c r="B55" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54">
-        <f>SUM(D5:D46)</f>
+      <c r="C55" s="53"/>
+      <c r="D55" s="54">
+        <f>SUM(D5:D54)</f>
         <v>200.12</v>
       </c>
-      <c r="E47" s="55">
-        <f>SUM(E5:E46)</f>
+      <c r="E55" s="55">
+        <f>SUM(E5:E54)</f>
         <v>175</v>
       </c>
-      <c r="F47" s="54">
-        <f>SUM(F5:F46)</f>
+      <c r="F55" s="54">
+        <f>SUM(F5:F54)</f>
         <v>158000</v>
       </c>
-      <c r="G47" s="22">
-        <f>SUM(G5:G46)</f>
+      <c r="G55" s="22">
+        <f>SUM(G5:G54)</f>
         <v>203424.34673856208</v>
       </c>
-      <c r="H47" s="55">
-        <f>SUM(H5:H46)</f>
+      <c r="H55" s="55">
+        <f>SUM(H5:H54)</f>
         <v>178026</v>
       </c>
-      <c r="I47" s="23">
-        <f>F47/H47</f>
+      <c r="I55" s="23">
+        <f>F55/H55</f>
         <v>0.88751081302731061</v>
       </c>
-      <c r="J47" s="23">
-        <f t="shared" ref="J47" si="1">F47/G47</f>
+      <c r="J55" s="23">
+        <f t="shared" ref="J55" si="1">F55/G55</f>
         <v>0.7767015233582597</v>
       </c>
-      <c r="K47" s="24">
-        <f>G47/H47</f>
+      <c r="K55" s="24">
+        <f>G55/H55</f>
         <v>1.1426665023005744</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="B48" s="75" t="s">
+    <row r="56" spans="1:11">
+      <c r="B56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="77"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-    </row>
-    <row r="50" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="62"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="82"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="70"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="67"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B57:K57"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B56:K56"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
